--- a/Config/GameConfigSetting.xlsx
+++ b/Config/GameConfigSetting.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GItLib\Dice\Project\Dice\Config\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ExcelToJcon\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919FCEA7-2867-40A2-B0F8-7DEB7F01D383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CACA9E-6FA7-44B5-BCE7-0C8D44B7668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="游戏配置" sheetId="5" r:id="rId1"/>
+    <sheet name="游戏配置 (2)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>主键</t>
   </si>
@@ -34,46 +35,63 @@
     <t>id</t>
   </si>
   <si>
+    <t>END</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameConfigSetting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TURN_TIMES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转盘每天可以转动的次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SERVER</t>
-  </si>
-  <si>
-    <t>END</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameConfigSetting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TURN_TIMES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转盘每天可以转动的次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameConfig123Setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,8 +466,372 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29ED477-CBE8-44BF-9E9A-43BD4C4F7B18}">
   <dimension ref="A1:G87"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215A6770-B0E0-4BD0-8E4C-13F5791EC246}">
+  <dimension ref="A1:G87"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -462,30 +844,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -496,32 +878,41 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">

--- a/Config/GameConfigSetting.xlsx
+++ b/Config/GameConfigSetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ExcelToJcon\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CACA9E-6FA7-44B5-BCE7-0C8D44B7668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B472F5-1A58-4DFA-8363-5559A9A754B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="游戏配置" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>主键</t>
   </si>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TURN_TIMES111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29ED477-CBE8-44BF-9E9A-43BD4C4F7B18}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -522,14 +532,14 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -547,15 +557,22 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
@@ -830,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215A6770-B0E0-4BD0-8E4C-13F5791EC246}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
